--- a/biology/Biologie cellulaire et moléculaire/Glande_apocrine/Glande_apocrine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Glande_apocrine/Glande_apocrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une glande apocrine est une glande exocrine qui libère son produit de sécrétion par l'élimination de son pôle apical. La cellule perd une partie de son cytoplasme lors de la sécrétion.
-Les glandes mammaires en période de lactation sont par exemple des glandes exocrines apocrine[1].
-Au niveau de la peau, des glandes apocrines sont présentes au niveau des creux axillaires, de la région génitale et péri-anale, de la paupière, du canal auditif externe et en péri-ombilical[2].
-Leur activation est liée aux hormones androgènes, ce qui est corroboré par une forte expression des récepteurs aux stéroïdes et notamment le récepteur aux androgènes (RA) au niveau de leur noyau. Cette surexpression des RA est retrouvé dans les adénocarcinomes apocrines vrais[3].
+Les glandes mammaires en période de lactation sont par exemple des glandes exocrines apocrine.
+Au niveau de la peau, des glandes apocrines sont présentes au niveau des creux axillaires, de la région génitale et péri-anale, de la paupière, du canal auditif externe et en péri-ombilical.
+Leur activation est liée aux hormones androgènes, ce qui est corroboré par une forte expression des récepteurs aux stéroïdes et notamment le récepteur aux androgènes (RA) au niveau de leur noyau. Cette surexpression des RA est retrouvé dans les adénocarcinomes apocrines vrais.
 La sécrétion apocrine est moins dommageable pour la glande que la sécrétion holocrine (élimination de la cellule) mais plus dommageable que la sécrétion mérocrine (exocytose).
 </t>
         </is>
